--- a/Registro de imágenes.xlsx
+++ b/Registro de imágenes.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\Dataset_PRY2020217-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5149EEF6-5ABD-4A3B-835E-418FD4216193}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03753909-3614-482D-B778-94CF7423053B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F1CA0CE2-2CBF-4258-865C-1EEDB39935A7}"/>
+    <workbookView xWindow="23535" yWindow="4050" windowWidth="7845" windowHeight="14820" xr2:uid="{F1CA0CE2-2CBF-4258-865C-1EEDB39935A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Resumen" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Producto</t>
   </si>
@@ -45,83 +45,86 @@
     <t>Tacacho con cecina</t>
   </si>
   <si>
-    <t xml:space="preserve">Tallarines rojos con pollo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tallarines saltados con pollo </t>
-  </si>
-  <si>
-    <t>Tallarines verdes con pollo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tallarines verdes con chuleta </t>
-  </si>
-  <si>
-    <t>Trucha con arroz</t>
-  </si>
-  <si>
     <t>Causa rellena</t>
   </si>
   <si>
     <t>Aguadito de pollo</t>
   </si>
   <si>
-    <t>Locro de zapallo</t>
-  </si>
-  <si>
-    <t>Tiradito de pejerrey</t>
-  </si>
-  <si>
-    <t>Parihuela</t>
-  </si>
-  <si>
-    <t>Choritos a la chalaca</t>
-  </si>
-  <si>
-    <t>Tamal de pollo</t>
-  </si>
-  <si>
-    <t>Olluquito de charqui con arroz</t>
-  </si>
-  <si>
     <t>Anticucho</t>
   </si>
   <si>
-    <t>Juane</t>
-  </si>
-  <si>
-    <t>Bisteck de res a lo pobre</t>
-  </si>
-  <si>
-    <t>Kam lu wantán</t>
-  </si>
-  <si>
-    <t>Arroz con lentejas</t>
-  </si>
-  <si>
     <t>Chanfainita</t>
   </si>
   <si>
-    <t>Chicharrón de pescado</t>
-  </si>
-  <si>
-    <t>Arroz tapado</t>
-  </si>
-  <si>
-    <t>Milanesas</t>
-  </si>
-  <si>
-    <t>Choclo con queso</t>
-  </si>
-  <si>
     <t>Cantidad de Imágenes</t>
+  </si>
+  <si>
+    <t>Almuerzo</t>
+  </si>
+  <si>
+    <t>Cena</t>
+  </si>
+  <si>
+    <t>Frutos secos</t>
+  </si>
+  <si>
+    <t>Cebiche de pescado</t>
+  </si>
+  <si>
+    <t>Papa a la huancaína</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aji de pollo y arroz </t>
+  </si>
+  <si>
+    <t>Pollo a la brasa con papas fritas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pollo broaster con papas fritas </t>
+  </si>
+  <si>
+    <t>Lomo saltado con arroz</t>
+  </si>
+  <si>
+    <t>Arroz con pollo</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Arroz chaufa de pollo</t>
+  </si>
+  <si>
+    <t>Tallarines saltados con pollo</t>
+  </si>
+  <si>
+    <t>Tallarines rojos con pollo</t>
+  </si>
+  <si>
+    <t>Tallarines verdes con bistec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasas </t>
+  </si>
+  <si>
+    <t>Almendras</t>
+  </si>
+  <si>
+    <t>Maní</t>
+  </si>
+  <si>
+    <t>Pecanas</t>
+  </si>
+  <si>
+    <t>Pistachos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,20 +136,44 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -154,13 +181,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,152 +558,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4460EE-627E-44F6-9678-5C70A3713596}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="B26" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Registro de imágenes.xlsx
+++ b/Registro de imágenes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\Dataset_PRY2020217-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03753909-3614-482D-B778-94CF7423053B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EC849E-8B5E-4DF9-812A-558128970599}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23535" yWindow="4050" windowWidth="7845" windowHeight="14820" xr2:uid="{F1CA0CE2-2CBF-4258-865C-1EEDB39935A7}"/>
+    <workbookView xWindow="20955" yWindow="780" windowWidth="7845" windowHeight="14820" xr2:uid="{F1CA0CE2-2CBF-4258-865C-1EEDB39935A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +638,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="2">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -745,7 +745,9 @@
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2">
+        <v>142</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -760,7 +762,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">

--- a/Registro de imágenes.xlsx
+++ b/Registro de imágenes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\Dataset_PRY2020217-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EC849E-8B5E-4DF9-812A-558128970599}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1ECB23-1174-412A-ACFD-C8892B7AF624}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20955" yWindow="780" windowWidth="7845" windowHeight="14820" xr2:uid="{F1CA0CE2-2CBF-4258-865C-1EEDB39935A7}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="7845" windowHeight="14820" xr2:uid="{F1CA0CE2-2CBF-4258-865C-1EEDB39935A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Producto</t>
   </si>
@@ -60,15 +60,6 @@
     <t>Cantidad de Imágenes</t>
   </si>
   <si>
-    <t>Almuerzo</t>
-  </si>
-  <si>
-    <t>Cena</t>
-  </si>
-  <si>
-    <t>Frutos secos</t>
-  </si>
-  <si>
     <t>Cebiche de pescado</t>
   </si>
   <si>
@@ -118,26 +109,58 @@
   </si>
   <si>
     <t>Pistachos</t>
+  </si>
+  <si>
+    <t>Arroz con leche</t>
+  </si>
+  <si>
+    <t>Choclo con queso</t>
+  </si>
+  <si>
+    <t>Granadilla*</t>
+  </si>
+  <si>
+    <t>Manzana</t>
+  </si>
+  <si>
+    <t>Mazamorra morada</t>
+  </si>
+  <si>
+    <t>Pan con chicharron</t>
+  </si>
+  <si>
+    <t>Pan con pollo</t>
+  </si>
+  <si>
+    <t>Panqueques</t>
+  </si>
+  <si>
+    <t>Platano</t>
+  </si>
+  <si>
+    <t>Sandía</t>
+  </si>
+  <si>
+    <t>Tamal de pollo</t>
+  </si>
+  <si>
+    <t>Triple</t>
+  </si>
+  <si>
+    <t>Uva verde</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -153,7 +176,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,14 +189,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -196,52 +213,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4460EE-627E-44F6-9678-5C70A3713596}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,173 +565,179 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>147</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>196</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>142</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2">
-        <v>144</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
-        <v>223</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>101</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2">
-        <v>178</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
-        <v>232</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
-        <v>126</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>162</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2">
-        <v>144</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2">
+        <v>98</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>142</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -754,39 +745,117 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B25" s="2">
-        <v>101</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B27" s="2">
-        <v>131</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="4">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-  </mergeCells>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">
+    <sortCondition ref="A1:A34"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
